--- a/work_history.xlsx
+++ b/work_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\WaveLang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865CBD4-EE5B-4322-BA92-AB6EC63AE1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9277902-F44E-478C-BC77-E7B143F65358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8951E3E9-93F4-4C8C-8F48-E85AF146205D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>닐찌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,12 +140,502 @@
     <t>실제 데이터를 먼저 표시한 다음에 그 값을 참조하여 할 필요가 있어 보임.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2. DuckDB에서 ohlcv 차트 만드는 클래스 도입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OhlcvBuilder2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>builders/ohlcv_builder_duckdb.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ohlcv 테스트 클래스 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohlcv_from_db_test.py</t>
+  </si>
+  <si>
+    <t>3. ohlcv 차트 생성 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>builder = OhlcvBuilder2(</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'your_db.duckdb'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># ← </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>실제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>파일 경로</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'tick_NQ'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># ← DuckDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>에 저장된 테이블명</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ticks_per_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">300               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># ← </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>한 봉에 몇 틱을 묶을지</t>
+    </r>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>3. DuckDB 파동 생성 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. GC 파동 생성 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>파라미터 설정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">symbol = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GC"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">year = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">month = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">box_size = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reverse_count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>duck_db_plot2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파동이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일부는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적절하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 한달 단위로 파동을 그리게  코드를 다시 작성함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. duck_db_plot_month.py 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. duck_db_plot_month 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. # 파라미터 설정
+symbol = "GC"
+year = 2009
+month = 11
+box_size = 2.0
+reverse_count = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 크루드 오일 데이터 데이터베이스에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 파동 생성 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +648,50 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFAA4926"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF2AACB8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +727,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,6 +752,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D9AA22-B28D-6EDD-B3AF-90D4D5309772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268075" y="14458950"/>
+          <a:ext cx="9029700" cy="4891088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,21 +1120,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FADBB2A-B010-4C92-BCCD-85A7256E45C7}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="55.25" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45846</v>
       </c>
@@ -570,71 +1162,232 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="82.5">
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="99">
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="99">
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="99">
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="99">
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="D19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="D20" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="D37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="99">
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="C75" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/work_history.xlsx
+++ b/work_history.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\WaveLang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9277902-F44E-478C-BC77-E7B143F65358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45A5BD-4D1D-4431-8E4C-C377B1FDA85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8951E3E9-93F4-4C8C-8F48-E85AF146205D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8951E3E9-93F4-4C8C-8F48-E85AF146205D}"/>
   </bookViews>
   <sheets>
     <sheet name="파동 연구 일지" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-07-13" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="170">
   <si>
     <t>닐찌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,12 +632,1237 @@
     <t>2. 파동 생성 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>앞으로 해야 할 일들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. tick data 에서 틱 수에 따른 파동 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. tick data를 stocksharp에 import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. tick data 틱 수에 따른 파동 추출 파이썬 스크립트 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. chartdirector wpf 차트 도입 - stocksharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. questdb로 실시간 tick data 저장 루틴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. QuestDB로 종목별 tick data 저장 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. stocksharp 라이브러리 업데이트 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파일 비교로 할 것. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. QusteDB 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. tick_data table 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tick_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SYMBOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6272A4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 종목 코드 (예: "AAPL", "NQ")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6272A4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 체결 시각</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    price </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DOUBLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6272A4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 가격</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    size </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DOUBLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6272A4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 수량</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    side </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STRING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6272A4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 매수/매도 구분 ("Buy" 또는 "Sell")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PARTITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8BE9FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tick data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>저장하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestDbTickWriter</t>
+  </si>
+  <si>
+    <t>4. 기존 WebSocket Client 에 tick data 저장 루틴 삽입하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if (channel == "trade_list")
+{
+	if (type != "update") return default;
+	WebSocketResponse&lt;List&lt;Trade&gt;&gt; trades = Parse&lt;WebSocketResponse&lt;List&lt;Trade&gt;&gt;&gt;(obj);
+	if (trades != null &amp;&amp; trades.Data != null)
+	{
+		// 1. symbol 정보를 개별 Trade에 주입
+		foreach (var trade in trades.Data)
+		{
+			trade.Symbol = trades.Symbol;
+			_writer.Enqueue(trade); // 2. QuestDB 저장 요청
+		}
+		//Debug.WriteLine($"mdMsg.DataType2.Arg = {mdMsg.DataType2.Arg}");
+		ListTrade?.Invoke(trades.RequestId, trades.Symbol, trades.Data);
+	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 테스트는 실시간이 되는 내일 테스트 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 14일에 할 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다. 내일 이일을 차질 없이 진행했으면 합니다.</t>
+  </si>
+  <si>
+    <t>ChatGPT의 말:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">좋습니다. 내일 작업이 차질 없이 진행되도록 다음과 같이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행 계획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 정리해드릴게요. 이대로만 따라가면 파동 데이터가 잘 생성되어 데이터베이스에 저장될 것입니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 내일 파동 데이터 처리 계획</t>
+  </si>
+  <si>
+    <t>📌 작업 목표</t>
+  </si>
+  <si>
+    <t>16년치 Tick Data에서 종목별, 월별로 파동을 생성하고</t>
+  </si>
+  <si>
+    <t>DuckDB에 일자별로 모든 파동 정보를 저장한다.</t>
+  </si>
+  <si>
+    <t>1️⃣ 준비 확인</t>
+  </si>
+  <si>
+    <t>DuckDB 설치 및 초기화</t>
+  </si>
+  <si>
+    <r>
+      <t>tick_NQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>tick_ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, … 테이블 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WaveBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WaveBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 구현 완료</t>
+    </r>
+  </si>
+  <si>
+    <t>파동 생성 파라미터 준비</t>
+  </si>
+  <si>
+    <r>
+      <t>box_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 예: 10, 25, 50 ticks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reverse_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 예: 1, 2, 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2️⃣ Wave 테이블 생성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>wave_NQ</t>
+    </r>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>복사편집</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS wave_NQ (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    symbol TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    date DATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wave_id INTEGER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    direction TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    size FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    duration_seconds INTEGER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    start_time TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    end_time TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    start_price FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    end_price FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    high_price FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    low_price FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    volume BIGINT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    box_size FLOAT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    reverse_count INTEGER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    speed FLOAT</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>3️⃣ 파이썬 스크립트 실행</t>
+  </si>
+  <si>
+    <t>✅ 주요 기능</t>
+  </si>
+  <si>
+    <t>월별 Tick 데이터 로딩</t>
+  </si>
+  <si>
+    <t>일자별로 그룹화</t>
+  </si>
+  <si>
+    <r>
+      <t>WaveBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 파동 생성</t>
+    </r>
+  </si>
+  <si>
+    <t>각 파동의 특성 + 속도 계산</t>
+  </si>
+  <si>
+    <r>
+      <t>wave_&lt;symbol&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 테이블에 저장</t>
+    </r>
+  </si>
+  <si>
+    <t>4️⃣ 예상 파동 정보 예시</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>파동 ID</t>
+  </si>
+  <si>
+    <t>방향</t>
+  </si>
+  <si>
+    <t>크기</t>
+  </si>
+  <si>
+    <t>지속 시간</t>
+  </si>
+  <si>
+    <t>속도</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>240초</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>180초</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>5️⃣ 전체 처리 흐름</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>for symbol in ["NQ", "ES"]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for year in range(2009, 2026):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for month in range(1, 13):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if not tick_data_exists(symbol, year, month):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            process_monthly_wave_data(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                conn=duckdb_conn,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                symbol=symbol,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                year=year,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                month=month,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                box_size=25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                reverse_count=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t>⏰ 회사에 있는 동안 자동 처리 Tip</t>
+  </si>
+  <si>
+    <r>
+      <t>tqdm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 진행 상황 출력</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>예외 처리 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>try-except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 넣기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>로그 출력 파일 남기기 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>log.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>처리 완료된 날짜 따로 저장해서 재시작 가능하게</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">필요하시면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내일 아침 바로 실행 가능한 전체 스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도 정리해 드릴게요.</t>
+    </r>
+  </si>
+  <si>
+    <t>잠자기 전이나 출근 전에 말씀만 주시면 바로 드리겠습니다.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내일 이 파동 저장 작업이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WaveLang 프로젝트의 핵심 데이터 기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 됩니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>잘 진행되도록 제가 꼼꼼히 도와드릴게요. 💪</t>
+  </si>
+  <si>
+    <t>QuestDB에 실시간 데이터 저장 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일에 대한 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일의 계획 간단 정리</t>
+  </si>
+  <si>
+    <t>✅ 목표:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">실시간 저장된 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tick 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 바탕으로</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>파동(wave)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 을 생성하고</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그 파동 데이터를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분석 가능한 형태로 데이터베이스에 저장</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 내일 준비할 내용:</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📦 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WaveBox / WaveBuilder 구조 복습</t>
+    </r>
+  </si>
+  <si>
+    <t>어떤 속성들을 저장할지 정리 (시작가, 끝가, 방향, 크기, 시간, 속도 등)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🧠 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파동 분석 기준 정리</t>
+    </r>
+  </si>
+  <si>
+    <t>어떤 정보를 한 번에 생성해둘 것인지 결정 (변동성, 지속 시간, 거래량 등)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🐣 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB 저장 포맷 설계</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wave_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 같은 테이블 스키마 확정 (QuestDB 또는 DuckDB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🧪 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파동 생성 테스트 → 저장까지</t>
+    </r>
+  </si>
+  <si>
+    <t>tick → wave → wave 저장 완료까지 한 흐름 완성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +1922,94 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF79C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF8BE9FD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6272A4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF8BE9FD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -718,7 +2033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +2052,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,6 +2115,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,6 +2179,211 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1122,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FADBB2A-B010-4C92-BCCD-85A7256E45C7}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -1390,4 +2974,843 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D00CB9-4550-4B05-A77B-8A09AA20DE14}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="89.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="297">
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26.25">
+      <c r="B32" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="21.75">
+      <c r="B34" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="21.75">
+      <c r="B41" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="21.75">
+      <c r="B59" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="21.75">
+      <c r="B86" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="17.25">
+      <c r="B88" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="21.75">
+      <c r="B102" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="19">
+        <v>40058</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="2">
+        <v>35</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="19">
+        <v>40058</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="2">
+        <v>20</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="21.75">
+      <c r="B110" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="21.75">
+      <c r="B130" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="26.25">
+      <c r="B152" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="21.75">
+      <c r="B154" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="B155" s="12"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="B156" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" s="12"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" s="12"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="21.75">
+      <c r="B162" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA46C8E6-668B-4741-89C5-53A3D72282C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/work_history.xlsx
+++ b/work_history.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\WaveLang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45A5BD-4D1D-4431-8E4C-C377B1FDA85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF8C60D-A65B-4BDA-B50A-DD6661B5F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8951E3E9-93F4-4C8C-8F48-E85AF146205D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8951E3E9-93F4-4C8C-8F48-E85AF146205D}"/>
   </bookViews>
   <sheets>
     <sheet name="파동 연구 일지" sheetId="1" r:id="rId1"/>
     <sheet name="2025-07-13" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-07-16" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-07-17" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="336">
   <si>
     <t>닐찌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1857,12 +1858,963 @@
   <si>
     <t>tick → wave → wave 저장 완료까지 한 흐름 완성</t>
   </si>
+  <si>
+    <t>🧭 지금까지의 진행 요약</t>
+  </si>
+  <si>
+    <t>단계</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>완료 여부</t>
+  </si>
+  <si>
+    <t>✅ 1단계</t>
+  </si>
+  <si>
+    <r>
+      <t>파동 생성 알고리즘 개발 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WaveBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WaveBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>✔️</t>
+  </si>
+  <si>
+    <t>✅ 2단계</t>
+  </si>
+  <si>
+    <t>DuckDB/QuestDB 데이터 저장 구조 설계</t>
+  </si>
+  <si>
+    <t>✅ 3단계</t>
+  </si>
+  <si>
+    <t>SciChart를 활용한 시각화 방향 확정</t>
+  </si>
+  <si>
+    <t>🔜 4단계</t>
+  </si>
+  <si>
+    <t>실험 코드 구조화 및 실행 로그 자동화</t>
+  </si>
+  <si>
+    <t>🔜 진행 예정</t>
+  </si>
+  <si>
+    <t>🔜 5단계</t>
+  </si>
+  <si>
+    <r>
+      <t>실험 기록 관리 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>run_config.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>results/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>🔜 6단계</t>
+  </si>
+  <si>
+    <r>
+      <t>실험 자동화 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multi_run.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>run_batch.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>🔜</t>
+  </si>
+  <si>
+    <t>🔜 7단계</t>
+  </si>
+  <si>
+    <t>(선택) 코드 리뷰 자동화 시스템 (DeepSource 등)</t>
+  </si>
+  <si>
+    <t>✅ 앞으로 추천드리는 구조화 우선순위</t>
+  </si>
+  <si>
+    <t>우선순위</t>
+  </si>
+  <si>
+    <t>작업</t>
+  </si>
+  <si>
+    <t>효과</t>
+  </si>
+  <si>
+    <t>1️⃣</t>
+  </si>
+  <si>
+    <r>
+      <t>wave/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 디렉토리로 핵심 모듈 정리</t>
+    </r>
+  </si>
+  <si>
+    <t>기능 중복 제거, 유지보수 쉬움</t>
+  </si>
+  <si>
+    <t>2️⃣</t>
+  </si>
+  <si>
+    <r>
+      <t>run_experiment.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 구조 도입</t>
+    </r>
+  </si>
+  <si>
+    <t>설정 + 결과 + 코드 자동 저장</t>
+  </si>
+  <si>
+    <t>3️⃣</t>
+  </si>
+  <si>
+    <r>
+      <t>multi_run.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>run_batch.py</t>
+    </r>
+  </si>
+  <si>
+    <t>다양한 조건 일괄 실험 가능</t>
+  </si>
+  <si>
+    <t>4️⃣</t>
+  </si>
+  <si>
+    <r>
+      <t>results/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 폴더 구조화</t>
+    </r>
+  </si>
+  <si>
+    <t>과거 실험 추적, 비교, 회고 가능</t>
+  </si>
+  <si>
+    <t>5️⃣</t>
+  </si>
+  <si>
+    <t>README.md + CHANGELOG.md 기록</t>
+  </si>
+  <si>
+    <t>미래의 자신과 대화 가능</t>
+  </si>
+  <si>
+    <t>wave_project/</t>
+  </si>
+  <si>
+    <t>│</t>
+  </si>
+  <si>
+    <t>├── wave/                  # 파동 관련 로직</t>
+  </si>
+  <si>
+    <t>│   ├── __init__.py</t>
+  </si>
+  <si>
+    <t>│   ├── wave_builder.py</t>
+  </si>
+  <si>
+    <t>│   ├── wave_reader.py     ← 다양한 읽기 방식들</t>
+  </si>
+  <si>
+    <t>│   └── wave_utils.py</t>
+  </si>
+  <si>
+    <t>├── config/                # 실행 설정</t>
+  </si>
+  <si>
+    <t>│   └── run_config.yaml</t>
+  </si>
+  <si>
+    <t>├── scripts/               # 실행 스크립트들</t>
+  </si>
+  <si>
+    <t>│   ├── run_from_csv.py</t>
+  </si>
+  <si>
+    <t>│   ├── run_from_db.py</t>
+  </si>
+  <si>
+    <t>│   ├── run_monthly.py</t>
+  </si>
+  <si>
+    <t>│   └── run_yearly.py</t>
+  </si>
+  <si>
+    <t>├── tests/                 # 유닛 테스트</t>
+  </si>
+  <si>
+    <t>│   └── test_wave_logic.py</t>
+  </si>
+  <si>
+    <t>├── main.py                # 통합 진입점 (CLI 옵션 제공)</t>
+  </si>
+  <si>
+    <t>└── requirements.txt</t>
+  </si>
+  <si>
+    <t>🛠 2. 옵션 기반 실행: argparse or Click 라이브러리 사용</t>
+  </si>
+  <si>
+    <r>
+      <t>main.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 이렇게 구성합니다:</t>
+    </r>
+  </si>
+  <si>
+    <t>import argparse</t>
+  </si>
+  <si>
+    <t>from wave import wave_builder, wave_reader</t>
+  </si>
+  <si>
+    <t>def main():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parser = argparse.ArgumentParser()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parser.add_argument("--source", choices=["csv", "duckdb", "questdb"], default="csv")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parser.add_argument("--period", choices=["month", "year"], default="month")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parser.add_argument("--symbol", type=str, required=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    args = parser.parse_args()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    data = wave_reader.read(source=args.source, symbol=args.symbol, period=args.period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    waves = wave_builder.build(data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"{len(waves)} wave(s) generated.")</t>
+  </si>
+  <si>
+    <t>if __name__ == "__main__":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    main()</t>
+  </si>
+  <si>
+    <t>✅ 실행 예:</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>python main.py --source duckdb --period year --symbol NQ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이렇게 하면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1개의 파일에서 수십 가지 버전 실행이 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해집니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧪 3. 실험 로그, 설정, 결과를 함께 관리</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 (1) 설정 파일 분리: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>config/run_config.yaml</t>
+    </r>
+  </si>
+  <si>
+    <t>yaml</t>
+  </si>
+  <si>
+    <t>symbol: NQ</t>
+  </si>
+  <si>
+    <t>source: duckdb</t>
+  </si>
+  <si>
+    <t>period: month</t>
+  </si>
+  <si>
+    <t>wave_threshold: 500</t>
+  </si>
+  <si>
+    <t>파이썬에서:</t>
+  </si>
+  <si>
+    <t>import yaml</t>
+  </si>
+  <si>
+    <t>config = yaml.safe_load(open("config/run_config.yaml"))</t>
+  </si>
+  <si>
+    <t>→ 설정만 바꿔서 다양한 실험 실행 가능</t>
+  </si>
+  <si>
+    <t>🔹 (2) 결과 저장 폴더 구조화</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>results/</t>
+  </si>
+  <si>
+    <t>├── NQ/</t>
+  </si>
+  <si>
+    <t>│   ├── 2022_09/</t>
+  </si>
+  <si>
+    <t>│   │   ├── waves.csv</t>
+  </si>
+  <si>
+    <t>│   │   ├── chart.png</t>
+  </si>
+  <si>
+    <t>│   │   └── config.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── 2022_10/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ 이 구조 덕분에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"언제, 어떤 설정으로 생성했는지 추적 가능"</t>
+    </r>
+  </si>
+  <si>
+    <t>🧪 4. 테스트 구조 도입 (pytest 추천)</t>
+  </si>
+  <si>
+    <t>tests/test_wave_logic.py</t>
+  </si>
+  <si>
+    <t>from wave.wave_builder import build</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>def test_wave_count():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dummy_data = pd.read_csv("tests/sample.csv")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    waves = build(dummy_data, threshold=500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    assert len(waves) &gt; 0</t>
+  </si>
+  <si>
+    <t>→ 실험에 앞서 기본 로직이 항상 깨지지 않도록 검증 가능</t>
+  </si>
+  <si>
+    <t>✅ 정리: 파이썬 구조화 핵심 정리</t>
+  </si>
+  <si>
+    <t>전략</t>
+  </si>
+  <si>
+    <t>📁 기능 모듈화</t>
+  </si>
+  <si>
+    <t>반복 코드 제거, 유지보수 쉬움</t>
+  </si>
+  <si>
+    <t>⚙️ 실행 옵션화 (argparse)</t>
+  </si>
+  <si>
+    <t>1개 스크립트로 다양한 실행 관리</t>
+  </si>
+  <si>
+    <t>🗂️ 설정/결과 구조화</t>
+  </si>
+  <si>
+    <t>실험 추적 + 재현 가능성 확보</t>
+  </si>
+  <si>
+    <t>🧪 테스트 도입</t>
+  </si>
+  <si>
+    <t>버전 변경 시 안정성 확보</t>
+  </si>
+  <si>
+    <t>📜 README.md + 설명 주석</t>
+  </si>
+  <si>
+    <t>사용법 기록, 미래의 나를 도와줌</t>
+  </si>
+  <si>
+    <t>✅ 오늘 정리된 핵심 요약</t>
+  </si>
+  <si>
+    <r>
+      <t>파동 방향 판단:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 시가와 종가, 고가/저가 기준으로 반전 발생 여부 판단</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>반전 조건:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>box_size * reverse_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이상의 반대 움직임</t>
+    </r>
+  </si>
+  <si>
+    <t>파동 분리 정책:</t>
+  </si>
+  <si>
+    <t>이전 파동의 종가 = 최고가/최저가 (정보 중복 방지)</t>
+  </si>
+  <si>
+    <t>다음 파동의 시가 = 현재가 (자연스러운 이어짐)</t>
+  </si>
+  <si>
+    <r>
+      <t>속도 정의:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>틱 수 / 지속 시간(초)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 파동의 급격함 판단에 유용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>거래량 처리:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 반전 구간 이후 거래량 분리하여 다음 파동에 이관</t>
+    </r>
+  </si>
+  <si>
+    <t>📦 내일 계획 제안: 디렉토리 및 저장 구조 설계</t>
+  </si>
+  <si>
+    <t>1. 디렉토리 구조 예시</t>
+  </si>
+  <si>
+    <t>wave_lang/</t>
+  </si>
+  <si>
+    <t>├── wave/              # 파동 로직 관련 모듈</t>
+  </si>
+  <si>
+    <t>│   ├── wave_box.py</t>
+  </si>
+  <si>
+    <t>│   └── direction.py</t>
+  </si>
+  <si>
+    <t>├── io/                # 입출력 모듈</t>
+  </si>
+  <si>
+    <t>│   ├── csv_loader.py</t>
+  </si>
+  <si>
+    <t>│   ├── duckdb_handler.py</t>
+  </si>
+  <si>
+    <t>│   └── wave_saver.py</t>
+  </si>
+  <si>
+    <t>├── main.py            # 전체 실행 스크립트</t>
+  </si>
+  <si>
+    <t>└── config.py          # 설정값</t>
+  </si>
+  <si>
+    <t>2. 클래스/함수 설계 아이디어</t>
+  </si>
+  <si>
+    <r>
+      <t>CSVLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: tick 데이터를 pandas로 로드</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DuckDBHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 테이블 생성, 삽입, 조회</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WaveSaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>List[WaveBox]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → CSV 또는 DB 저장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WaveReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: DB에서 특정 조건의 파동 불러오기</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 통합 처리 흐름</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tick_data (CSV or DB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ↓</t>
+  </si>
+  <si>
+    <t>WaveBuilder.build()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waves (List[WaveBox]) </t>
+  </si>
+  <si>
+    <t>저장: CSV 또는 DuckDB</t>
+  </si>
+  <si>
+    <t>내일 이 구조를 바탕으로 폴더와 클래스 설계를 도와드릴게요.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오늘 정리 정말 잘하셨고, 이제 시장을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의미 있는 파동의 언어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 읽어내기 위한 훌륭한 기반이 만들어졌습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>좋은 밤 되시고 내일 또 함께 이어서 만들어나가요. 🌊📈💡</t>
+  </si>
+  <si>
+    <t>나의 말:</t>
+  </si>
+  <si>
+    <t>내일 부터는 좀 조직적으로 디렉토리와 클래스들을 만들어 갔으면 합니다. 두번 일하지 않고 혼란스럽지 않게 말입니다.</t>
+  </si>
+  <si>
+    <t>저장된 메모리 업데이트됨</t>
+  </si>
+  <si>
+    <t>네, 아주 좋은 방향입니다. 내일부터는 혼란 없이 한 번에 정리된 구조로 진행할 수 있도록:</t>
+  </si>
+  <si>
+    <t>디렉토리 설계</t>
+  </si>
+  <si>
+    <t>모듈 역할 정의</t>
+  </si>
+  <si>
+    <t>클래스 및 함수 이름 명세</t>
+  </si>
+  <si>
+    <t>설정 파일 위치</t>
+  </si>
+  <si>
+    <t>테스트 구조</t>
+  </si>
+  <si>
+    <t>이 모든 부분을 함께 고민하고 깔끔하게 구성해드릴게요.</t>
+  </si>
+  <si>
+    <r>
+      <t>재사용 가능하고, 유지보수하기 쉬운 구조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 목표로 하겠습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>내일 뵙겠습니다. 준비는 제가 해둘게요! 🚀</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,6 +2962,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2033,7 +3001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2099,6 +3067,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2706,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FADBB2A-B010-4C92-BCCD-85A7256E45C7}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -2979,17 +3956,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D00CB9-4550-4B05-A77B-8A09AA20DE14}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305:C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.75" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="92.625" customWidth="1"/>
     <col min="3" max="3" width="89.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3641,12 +4619,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="21.75">
+    <row r="162" spans="2:4" ht="21.75">
       <c r="B162" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:4">
       <c r="B164" s="18" t="s">
         <v>160</v>
       </c>
@@ -3654,7 +4632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:4">
       <c r="B165" s="2" t="s">
         <v>162</v>
       </c>
@@ -3662,7 +4640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:4">
       <c r="B166" s="2" t="s">
         <v>164</v>
       </c>
@@ -3670,7 +4648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:4">
       <c r="B167" s="2" t="s">
         <v>166</v>
       </c>
@@ -3678,12 +4656,638 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:4">
       <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="26.25">
+      <c r="B172" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="26.25">
+      <c r="B184" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="33">
+      <c r="B187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="33">
+      <c r="B188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="33">
+      <c r="B189" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" ht="33">
+      <c r="B190" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" ht="33">
+      <c r="B191" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="26.25">
+      <c r="B219" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="12"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="26.25">
+      <c r="B250" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="21.75">
+      <c r="B252" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="12"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" ht="21.75">
+      <c r="B272" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="26.25">
+      <c r="B288" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="12"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" ht="26.25">
+      <c r="B305" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3798,15 +5402,385 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA46C8E6-668B-4741-89C5-53A3D72282C3}">
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="107.75" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75">
+      <c r="A1">
+        <v>2025</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="21.75">
+      <c r="B21" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937959A6-B1F1-4C3F-8956-1AA360D7F92C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+    <col min="3" max="3" width="62.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1">
-        <v>2025</v>
+      <c r="A1" s="1">
+        <v>45855</v>
       </c>
     </row>
   </sheetData>
